--- a/outputs/ROME2.xlsx
+++ b/outputs/ROME2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some general information about the project. There is no clear indication or direct link to information about filing an issue. Given Abi's motivation to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about filing an issue. Additionally, her low computer self-efficacy might make her hesitant to explore further without clear guidance.</t>
+Why: The page shown is a repository view with files and some project information. There is no clear indication or direct link to filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about how to file an issue. Additionally, Abi's low computer self-efficacy means she might not feel confident navigating through unrelated information to find the relevant details.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find introductory and instructional information about a project. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would likely consider reading the README as a logical step to gather information about how to file an issue. The page provides a clear link to the README file, making it accessible for Abi to take this action.</t>
+Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she is likely to read the README file to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page clearly lists the README.md file, making it accessible for Abi to take this action.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README, Abi will not find specific information about how to file an issue. The README provides general information about the project, technologies used, and contact points, but it does not include detailed instructions on filing an issue. Given Abi's comprehensive information processing style, she would need clear and specific guidance to feel confident that she is making progress toward her goal. The lack of this information in the README would likely leave her uncertain about the next steps.</t>
+Why: After reading the README.md file, Abi will not find specific information about how to file an issue. The README.md file shown in the image provides general information about the project, technologies used, and contact points but does not include instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed steps or clear guidance to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy means she might feel uncertain and frustrated if the necessary information is not readily available.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page includes a clear link to the "Contribute.md" file, which is likely to contain information about contributing to the project, including how to file an issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she would recognize that clicking on the "Contribute.md" link is a logical next step to find the information she needs. The page is straightforward and provides a clear path for her to follow.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style, she is likely to follow this clear instruction to gather more information. Additionally, her preference for process-oriented learning aligns with reading documentation that is specifically designed to guide new contributors. Therefore, Abi will know what to do at this step and will be motivated to click on the "Contribute.md" file.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue and provides guidance on what information to include. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will recognize that she has found the relevant information and is making progress toward her goal. The detailed instructions will help her feel confident that she is on the right track.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue and provides guidance on what information to include. Given Abi's comprehensive information processing style, she will appreciate the detailed and structured information. Additionally, her preference for process-oriented learning means she will find the step-by-step instructions helpful. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -471,16 +471,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file includes a specific section titled "File an issue," which provides clear instructions on how to file an issue. Given Abi's motivation to accomplish her tasks and her comprehensive information processing style, she would recognize that filing the issue is a necessary step toward achieving her overall goal of having a merge request template. The detailed instructions in the "File an issue" section will help her understand that she is on the right path.</t>
+Why: The "Contribute.md" file clearly outlines the steps to file an issue, including a specific section titled "File an issue." This section provides detailed instructions on how to create a new issue, which aligns with Abi's goal of filing an issue to have a merge request template. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize this as a necessary step toward achieving her overall use case. The clear and structured information will help her feel confident that she is making progress.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Contribute.md" file provides instructions on filing an issue but does not explicitly guide Abi on how to navigate to the list of issues. Given Abi's comprehensive information processing style, she would need clear and specific instructions to feel confident in her actions. Additionally, her low computer self-efficacy might make her hesitant to explore the interface without explicit guidance. The page does not provide a direct link or clear instructions on how to access the list of issues, which could leave Abi uncertain about what to do next.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: The "Contribute.md" file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style, she will follow the detailed steps provided in the documentation. Additionally, her preference for process-oriented learning means she will be comfortable following the explicit instructions to navigate to the list of issues. The page is good enough for Abi to take this action because it provides a clear and direct link to the next step in the process.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon reaching the list of issues, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her comprehensive information processing style, as the page provides a clear indication that she is in the right place to file a new issue. The presence of the "New issue" button will make it evident that she can proceed with filing her issue, helping her feel confident that she is making progress toward her goal. The page layout and labeling provide the necessary guidance for her to take the next step.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her goal of filing an issue, and the presence of the "New issue" button provides a clear next step. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward her goal. The page provides the necessary information and a straightforward way to proceed with filing the issue.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given her comprehensive information processing style and preference for process-oriented learning, she will recognize that clicking the "New issue" button is the appropriate action to take in order to file an issue. The page layout and labeling provide sufficient guidance for her to proceed confidently.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given Abi's comprehensive information processing style, she will recognize that clicking this button is the logical next action to file an issue. Additionally, her preference for process-oriented learning means she will follow the clear visual cue provided by the "New issue" button. The page is straightforward and provides the necessary guidance for Abi to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," Abi is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are clearly labeled. This aligns with Abi's comprehensive information processing style and preference for process-oriented learning, as the form provides a clear structure for entering the necessary information. The presence of the "Create issue" button at the bottom of the form further indicates that she is on the right track and making progress toward her goal. The page layout and instructions are clear and provide all the information she needs to file the issue.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward her goal. The form is clear and provides all the necessary fields for Abi to input the required information to file the issue.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. The "Create issue" button is prominently displayed, making it clear what Abi needs to do to submit the issue. Given Abi's comprehensive information processing style and preference for process-oriented learning, she will understand that filling out the form and clicking "Create issue" are the necessary steps to file the issue. The page provides all the information she needs to complete this action confidently.</t>
+Why: The form for creating a new issue is straightforward and includes clear fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields to provide the necessary details for the issue. Additionally, her preference for process-oriented learning means she will follow the structured format of the form. The "Create issue" button is prominently displayed, making it clear how to submit the issue once the form is filled out. The page provides all the necessary guidance for Abi to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, Abi is taken to a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi understand that she has successfully filed the issue and is making progress toward her goal. The page layout is clear and provides all the necessary information, including the issue title, description, and activity section, which aligns with her comprehensive information processing style and preference for process-oriented learning. This confirmation will reinforce that she did the right thing.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi know that she did the right thing and is making progress toward her goal. The page provides all the necessary information, including the issue title, description, and status, which aligns with Abi's comprehensive information processing style. The confirmation and visibility of the issue details will reassure Abi that she has successfully filed the issue.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME2.xlsx
+++ b/outputs/ROME2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some project information. There is no clear indication or direct link to filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she would likely not consider this page as a step toward finding information about how to file an issue. Additionally, Abi's low computer self-efficacy means she might not feel confident navigating through unrelated information to find the relevant details.</t>
+Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to think of this page as a step toward finding information about filing an issue. The lack of explicit guidance or instructions on this page would likely deter ABI from considering this as a relevant step.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README.md file is a common place to find important information about a project, including how to contribute or file issues. Given Abi's comprehensive information processing style, she is likely to read the README file to gather necessary information. Additionally, her preference for process-oriented learning aligns with reading documentation to understand the steps involved. The page clearly lists the README.md file, making it accessible for Abi to take this action.</t>
+Why: The README file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize the README file as a potential source of relevant information. The page clearly lists the README.md file, making it accessible for ABI to read and gather the necessary information.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README.md file, Abi will not find specific information about how to file an issue. The README.md file shown in the image provides general information about the project, technologies used, and contact points but does not include instructions on filing an issue. Given Abi's comprehensive information processing style, she would need detailed steps or clear guidance to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy means she might feel uncertain and frustrated if the necessary information is not readily available.</t>
+Why: After reading the README file, ABI would not find specific information about how to file an issue. The README file contains general information about the project, technologies used, and contact points but does not provide explicit instructions on filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, would not feel assured that they are making progress toward their goal. The lack of clear, step-by-step instructions would likely leave ABI uncertain about the next steps to take.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. Given Abi's comprehensive information processing style, she is likely to follow this clear instruction to gather more information. Additionally, her preference for process-oriented learning aligns with reading documentation that is specifically designed to guide new contributors. Therefore, Abi will know what to do at this step and will be motivated to click on the "Contribute.md" file.</t>
+Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a relevant step to find detailed instructions on how to contribute, which likely includes filing an issue. The clear labeling and context provided on the page would guide ABI to click on the "Contribute.md" file confidently.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue and provides guidance on what information to include. Given Abi's comprehensive information processing style, she will appreciate the detailed and structured information. Additionally, her preference for process-oriented learning means she will find the step-by-step instructions helpful. Therefore, Abi will know that she did the right thing and is making progress toward her goal, and she will get all the information she needs.</t>
+Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which aligns with ABI's preference for comprehensive information and process-oriented learning. ABI will know that they are making progress toward their goal and will have the necessary information to file an issue, as the instructions are explicitly provided in a step-by-step manner.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file clearly outlines the steps to file an issue, including a specific section titled "File an issue." This section provides detailed instructions on how to create a new issue, which aligns with Abi's goal of filing an issue to have a merge request template. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize this as a necessary step toward achieving her overall use case. The clear and structured information will help her feel confident that she is making progress.</t>
+Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue on GitLab. ABI, who prefers comprehensive information, would recognize this as a necessary step toward achieving the overall use case of filing an issue to have a merge request template. The detailed guidance aligns with ABI's motivation to accomplish tasks using familiar and well-documented methods.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions on how to file an issue, including a link to the list of issues. Given Abi's comprehensive information processing style, she will follow the detailed steps provided in the documentation. Additionally, her preference for process-oriented learning means she will be comfortable following the explicit instructions to navigate to the list of issues. The page is good enough for Abi to take this action because it provides a clear and direct link to the next step in the process.</t>
+Why: The "Contribute.md" file provides clear instructions on how to file an issue, including the step to go to the list of issues. ABI, who prefers comprehensive information and process-oriented learning, will understand that navigating to the list of issues is a necessary step in the process of filing an issue. The instructions are explicit and detailed, making it clear what ABI needs to do next, which aligns with their need for clear guidance and reduces uncertainty.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Upon landing on the list of issues page, Abi will see a clear and organized list of existing issues, along with a prominent "New issue" button. This aligns with her goal of filing an issue, and the presence of the "New issue" button provides a clear next step. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward her goal. The page provides the necessary information and a straightforward way to proceed with filing the issue.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: Upon reaching the list of issues, ABI will see a clear and familiar interface for managing issues, including a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is on the right track. The page provides a straightforward way to proceed with filing a new issue, which matches ABI's need for clear, step-by-step guidance. The presence of the "New issue" button and the list of existing issues will reassure ABI that they are making progress toward their goal and have the necessary information to continue.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for Abi to identify the next step. Given Abi's comprehensive information processing style, she will recognize that clicking this button is the logical next action to file an issue. Additionally, her preference for process-oriented learning means she will follow the clear visual cue provided by the "New issue" button. The page is straightforward and provides the necessary guidance for Abi to take this action confidently.</t>
+Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. The instructions in the "Contribute.md" file have already guided ABI to this point, and the interface is straightforward, reducing any potential confusion. ABI, who prefers comprehensive information and process-oriented learning, will recognize that clicking the "New issue" button is the logical next step in filing an issue. The clear labeling and intuitive placement of the button align with ABI's need for clear guidance and reduce uncertainty.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "New issue," Abi lands on a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. Given Abi's motivations to accomplish tasks efficiently and her comprehensive information processing style, she will recognize that she is on the right track and making progress toward her goal. The form is clear and provides all the necessary fields for Abi to input the required information to file the issue.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," ABI lands on a straightforward form for creating a new issue. The form is clearly labeled with fields for the title, type, and description, and includes a "Create issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is making progress toward their goal. The clear and simple interface provides all the necessary fields to file an issue, which matches ABI's need for comprehensive and process-oriented guidance. ABI will know they are on the right track and have the information needed to complete the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and includes clear fields for the title, type, and description. Given Abi's comprehensive information processing style, she will understand that she needs to fill out these fields to provide the necessary details for the issue. Additionally, her preference for process-oriented learning means she will follow the structured format of the form. The "Create issue" button is prominently displayed, making it clear how to submit the issue once the form is filled out. The page provides all the necessary guidance for Abi to take this action confidently.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description, as well as a "Create issue" button. ABI, who prefers comprehensive information and process-oriented learning, will understand that they need to fill out these fields to file the issue. The form's simplicity and clear instructions align with ABI's need for clear guidance, making it easy for them to know what to do at this step and proceed with confidence. The page provides all the necessary information for ABI to complete the action successfully.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After submitting the issue, Abi lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details she entered. This immediate feedback will help Abi know that she did the right thing and is making progress toward her goal. The page provides all the necessary information, including the issue title, description, and status, which aligns with Abi's comprehensive information processing style. The confirmation and visibility of the issue details will reassure Abi that she has successfully filed the issue.</t>
+Facets: 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, ABI lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details of the issue displayed. This immediate feedback reassures ABI that they have successfully completed the task and are making progress toward their goal. The page provides all the necessary information, including the issue title, description, and status, which aligns with ABI's preference for comprehensive information and process-oriented learning. The clear confirmation and detailed display of the issue ensure that ABI knows they did the right thing and have all the information they need.</t>
         </is>
       </c>
     </row>

--- a/outputs/ROME2.xlsx
+++ b/outputs/ROME2.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository view with files and some information about the project. There is no clear indication or direct information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to think of this page as a step toward finding information about filing an issue. The lack of explicit guidance or instructions on this page would likely deter ABI from considering this as a relevant step.</t>
+Why: The page shown is a repository view with various files and folders listed. There is no clear indication or information about how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not be motivated to consider this page as a step toward finding information about filing an issue. The lack of explicit guidance or relevant information on this page would likely deter ABI from thinking this is a step toward achieving the overall use case.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The README file is a common place to find important information about a project, including how to contribute or file issues. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize the README file as a potential source of relevant information. The page clearly lists the README.md file, making it accessible for ABI to read and gather the necessary information.</t>
+Why: The README file is a common place to find introductory and instructional information about a project. ABI, who prefers comprehensive information and process-oriented learning, would likely recognize that reading the README could provide useful guidance on how to proceed with filing an issue. The README section on this page includes various headings such as "How to use?" and "Contribute," which suggest that it contains relevant information that could help ABI understand the steps needed to file an issue.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After reading the README file, ABI would not find specific information about how to file an issue. The README file contains general information about the project, technologies used, and contact points but does not provide explicit instructions on filing an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar tasks, would not feel assured that they are making progress toward their goal. The lack of clear, step-by-step instructions would likely leave ABI uncertain about the next steps to take.</t>
+Why: While the README file does provide some general information about the project, it does not explicitly mention how to file an issue. ABI, who prefers comprehensive information and has low confidence in unfamiliar computing tasks, would not find the specific guidance needed to file an issue in this README. The sections like "How to use?" and "Contribute" do not provide detailed steps or direct instructions on filing an issue, which would leave ABI uncertain about whether they are making progress toward their goal. The lack of explicit, detailed information would likely cause ABI to feel unsure and potentially frustrated.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page explicitly mentions the "Contribute.md" file under the "Want to help?" section, indicating that it contains information for new contributors. ABI, who prefers comprehensive information and process-oriented learning, would recognize this as a relevant step to find detailed instructions on how to contribute, which likely includes filing an issue. The clear labeling and context provided on the page would guide ABI to click on the "Contribute.md" file confidently.</t>
+Why: The "contribute.md" file is likely to contain information about how to contribute to the project, which often includes instructions on how to file issues. ABI, who prefers comprehensive information and process-oriented learning, would recognize that clicking on the "contribute.md" file could provide the necessary steps or guidelines for filing an issue. The file name itself is indicative of its content, making it a logical next step for ABI to take in order to find the information needed.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear and detailed instructions on how to file an issue, including a specific section titled "File an issue." This section outlines the steps to create a new issue on GitLab, which aligns with ABI's preference for comprehensive information and process-oriented learning. ABI will know that they are making progress toward their goal and will have the necessary information to file an issue, as the instructions are explicitly provided in a step-by-step manner.</t>
+Why: The "contribute.md" file provides a clear section titled "File an issue," which directly addresses ABI's subgoal of finding information about how to file an issue. This section includes specific instructions and steps, such as creating a "New Issue" in the GitLab app and providing as much detail as possible. This aligns well with ABI's preference for comprehensive information and process-oriented learning. By following these instructions, ABI will know that they are making progress toward their goal and have the necessary information to file an issue.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Contribute.md" file explicitly includes a section titled "File an issue," which provides clear instructions on how to file an issue on GitLab. ABI, who prefers comprehensive information, would recognize this as a necessary step toward achieving the overall use case of filing an issue to have a merge request template. The detailed guidance aligns with ABI's motivation to accomplish tasks using familiar and well-documented methods.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: The "contribute.md" file contains a clear section titled "File an issue," which provides specific instructions on how to file an issue, including creating a "New Issue" in the GitLab app and providing detailed information. This aligns with ABI's motivation to accomplish tasks and her preference for comprehensive, process-oriented information. The detailed steps and clear instructions would help ABI recognize that filing the issue is a necessary step toward achieving the overall use case of having a merge request template.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Contribute.md" file provides clear instructions on how to file an issue, including the step to go to the list of issues. ABI, who prefers comprehensive information and process-oriented learning, will understand that navigating to the list of issues is a necessary step in the process of filing an issue. The instructions are explicit and detailed, making it clear what ABI needs to do next, which aligns with their need for clear guidance and reduces uncertainty.</t>
+Why: The "contribute.md" file provides clear instructions under the "File an issue" section, which includes the step to go to the list of issues. ABI, who prefers comprehensive information and process-oriented learning, will understand from the instructions that navigating to the list of issues is a necessary step in the process of filing an issue. The detailed guidance provided in the "contribute.md" file will help ABI feel confident in taking this action, knowing it is part of the overall process to achieve the goal.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Upon reaching the list of issues, ABI will see a clear and familiar interface for managing issues, including a prominent "New issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is on the right track. The page provides a straightforward way to proceed with filing a new issue, which matches ABI's need for clear, step-by-step guidance. The presence of the "New issue" button and the list of existing issues will reassure ABI that they are making progress toward their goal and have the necessary information to continue.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: Upon reaching the list of issues, ABI will see a clear and organized list of existing issues, along with a prominent "New issue" button at the top right. This aligns with the instructions provided in the "contribute.md" file, confirming to ABI that they are on the right track. The presence of the "New issue" button provides a clear next step, reinforcing that ABI is making progress toward their goal of filing an issue. The page layout and labeling are straightforward, which will help ABI feel confident that they are proceeding correctly.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "New issue" button is prominently displayed on the page, making it clear and easy for ABI to identify the next step. The instructions in the "Contribute.md" file have already guided ABI to this point, and the interface is straightforward, reducing any potential confusion. ABI, who prefers comprehensive information and process-oriented learning, will recognize that clicking the "New issue" button is the logical next step in filing an issue. The clear labeling and intuitive placement of the button align with ABI's need for clear guidance and reduce uncertainty.</t>
+Why: The "New issue" button is prominently displayed at the top right of the page, making it easy for ABI to identify the next step. The instructions in the "contribute.md" file have already guided ABI to this point, and the clear labeling of the button aligns with ABI's preference for comprehensive, process-oriented information. The page layout is straightforward and intuitive, providing ABI with the confidence to click the "New issue" button as the next logical step in filing the issue.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking "New issue," ABI lands on a straightforward form for creating a new issue. The form is clearly labeled with fields for the title, type, and description, and includes a "Create issue" button. This aligns with the instructions provided in the "Contribute.md" file, confirming that ABI is making progress toward their goal. The clear and simple interface provides all the necessary fields to file an issue, which matches ABI's need for comprehensive and process-oriented guidance. ABI will know they are on the right track and have the information needed to complete the task.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: After clicking "New issue," ABI is taken to a straightforward form for creating a new issue. The form includes fields for the title, type, and description, which are standard elements for filing an issue. This clear and simple layout aligns with ABI's preference for comprehensive, process-oriented information. The presence of the "Create issue" button at the bottom of the form provides a clear next step, reinforcing that ABI is making progress toward their goal. The instructions in the "contribute.md" file have guided ABI to this point, and the form's design will help ABI feel confident that they are on the right track and have all the necessary information to complete the task.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 5. Learning Style
-Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description, as well as a "Create issue" button. ABI, who prefers comprehensive information and process-oriented learning, will understand that they need to fill out these fields to file the issue. The form's simplicity and clear instructions align with ABI's need for clear guidance, making it easy for them to know what to do at this step and proceed with confidence. The page provides all the necessary information for ABI to complete the action successfully.</t>
+Why: The form for creating a new issue is straightforward and clearly labeled, with fields for the title, type, and description. ABI, who prefers comprehensive information and process-oriented learning, will find the form intuitive and easy to understand. The instructions in the "contribute.md" file have guided ABI to this point, and the form's design provides clear guidance on what information is needed to file the issue. The "Create issue" button at the bottom of the form provides a clear next step, making it easy for ABI to complete the action and feel confident that they are making progress toward their goal.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After submitting the issue, ABI lands on a page that confirms the issue has been created, with a clear status indicator ("Open") and the details of the issue displayed. This immediate feedback reassures ABI that they have successfully completed the task and are making progress toward their goal. The page provides all the necessary information, including the issue title, description, and status, which aligns with ABI's preference for comprehensive information and process-oriented learning. The clear confirmation and detailed display of the issue ensure that ABI knows they did the right thing and have all the information they need.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 5. Learning Style
+Why: After submitting the issue, ABI is taken to a confirmation page that shows the newly created issue with a status of "Open" and a message indicating that the issue was created. This clear feedback confirms to ABI that they have successfully filed the issue and are making progress toward their goal. The page layout provides all the necessary information, including the issue title, description, and status, which aligns with ABI's preference for comprehensive information and process-oriented learning. This positive feedback will reinforce ABI's confidence that they did the right thing and have all the information they need.</t>
         </is>
       </c>
     </row>
